--- a/data/stations_baseline_footfall.xlsx
+++ b/data/stations_baseline_footfall.xlsx
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>18393</v>
+        <v>18870</v>
       </c>
     </row>
     <row r="98">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>38212</v>
+        <v>38213</v>
       </c>
     </row>
     <row r="144">
